--- a/データ検証/EIPA/data/en/EN_16831-1.xlsx
+++ b/データ検証/EIPA/data/en/EN_16831-1.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/eipa/data/en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/EIPA/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575878A6-3C0E-614E-A31B-743E4E442080}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49378C-6AF4-EB40-86C9-94682BFDAD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="560" windowWidth="20800" windowHeight="14800" xr2:uid="{FE4C27AB-FFF7-4BC9-B473-7EBAC36AF9AA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table2" sheetId="1" r:id="rId1"/>
-    <sheet name="functionality" sheetId="2" r:id="rId2"/>
-    <sheet name="Integrity" sheetId="3" r:id="rId3"/>
-    <sheet name="Conditions" sheetId="4" r:id="rId4"/>
-    <sheet name="VATCategory" sheetId="5" r:id="rId5"/>
-    <sheet name="VAT" sheetId="6" r:id="rId6"/>
+    <sheet name="Table2_text" sheetId="7" r:id="rId1"/>
+    <sheet name="Table2" sheetId="1" r:id="rId2"/>
+    <sheet name="functionality" sheetId="2" r:id="rId3"/>
+    <sheet name="Integrity" sheetId="3" r:id="rId4"/>
+    <sheet name="Conditions" sheetId="4" r:id="rId5"/>
+    <sheet name="VATCategory" sheetId="5" r:id="rId6"/>
+    <sheet name="VAT" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2252" uniqueCount="1377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1383">
   <si>
     <t>The sequential number required in Article 226(2) of the directive 2006/112/EC [2], to uniquely identify the Invoice within the business context, time-frame, operating systems and records of the Seller. It may be based on one or more series of numbers, which may include alphanumeric characters. No identification scheme is to be used.</t>
   </si>
@@ -4551,6 +4552,29 @@
   </si>
   <si>
     <t>BT-158B</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+  </si>
+  <si>
+    <t>Identifier</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DocumentReference</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Percentage</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Quantity</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5256,11 +5280,3561 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DC1FB1-BFDE-6F49-8B64-9BB79D12E729}">
+  <dimension ref="A1:E213"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D171" sqref="D171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.1640625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="24" customHeight="1">
+      <c r="A2" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="24" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="24" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="24" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="24" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="24" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="24" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="24" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="24" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="24" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="24" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="24" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="24" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="24" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="24" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="24" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="24" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="24" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="24" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="24" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="24" customHeight="1">
+      <c r="A24" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="24" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="3" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="24" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="24" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="24" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="24" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="24" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="24" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="24" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="24" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="24" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="24" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="24" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="24" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="24" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="24" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="24" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="24" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="24" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="24" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="24" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="24" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="24" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="24" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="24" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="24" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="24" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="24" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="24" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="24" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="24" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="24" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="24" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="24" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="24" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="24" customHeight="1">
+      <c r="A61" s="25" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="24" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="24" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="24" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="24" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="24" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="24" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="24" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="24" customHeight="1">
+      <c r="A75" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="24" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="24" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="24" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="24" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="24" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="24" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" s="6"/>
+      <c r="E83" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="24" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="24" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="24" customHeight="1">
+      <c r="A86" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="6"/>
+      <c r="E86" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="24" customHeight="1">
+      <c r="A88" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="24" customHeight="1">
+      <c r="A89" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="24" customHeight="1">
+      <c r="A90" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="24" customHeight="1">
+      <c r="A92" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="24" customHeight="1">
+      <c r="A93" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="24" customHeight="1">
+      <c r="A94" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="24" customHeight="1">
+      <c r="A96" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="24" customHeight="1">
+      <c r="A98" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="24" customHeight="1">
+      <c r="A99" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="24" customHeight="1">
+      <c r="A100" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="24" customHeight="1">
+      <c r="A101" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="24" customHeight="1">
+      <c r="A102" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="24" customHeight="1">
+      <c r="A103" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="24" customHeight="1">
+      <c r="A104" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="24" customHeight="1">
+      <c r="A105" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="24" customHeight="1">
+      <c r="A106" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="24" customHeight="1">
+      <c r="A107" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="24" customHeight="1">
+      <c r="A108" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="24" customHeight="1">
+      <c r="A109" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="24" customHeight="1">
+      <c r="A110" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="6"/>
+      <c r="E110" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="24" customHeight="1">
+      <c r="A111" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="24" customHeight="1">
+      <c r="A112" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="24" customHeight="1">
+      <c r="A113" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="24" customHeight="1">
+      <c r="A114" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="24" customHeight="1">
+      <c r="A115" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="24" customHeight="1">
+      <c r="A116" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="24" customHeight="1">
+      <c r="A117" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="24" customHeight="1">
+      <c r="A118" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" s="6"/>
+      <c r="E118" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="24" customHeight="1">
+      <c r="A119" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="24" customHeight="1">
+      <c r="A120" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="24" customHeight="1">
+      <c r="A121" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="24" customHeight="1">
+      <c r="A122" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="24" customHeight="1">
+      <c r="A123" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="24" customHeight="1">
+      <c r="A124" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="24" customHeight="1">
+      <c r="A125" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="24" customHeight="1">
+      <c r="A126" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="24" customHeight="1">
+      <c r="A127" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="24" customHeight="1">
+      <c r="A128" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="24" customHeight="1">
+      <c r="A129" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="24" customHeight="1">
+      <c r="A130" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="24" customHeight="1">
+      <c r="A131" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="24" customHeight="1">
+      <c r="A132" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="24" customHeight="1">
+      <c r="A133" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="24" customHeight="1">
+      <c r="A134" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="24" customHeight="1">
+      <c r="A135" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="24" customHeight="1">
+      <c r="A136" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="24" customHeight="1">
+      <c r="A137" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="24" customHeight="1">
+      <c r="A138" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="24" customHeight="1">
+      <c r="A139" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="24" customHeight="1">
+      <c r="A140" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="24" customHeight="1">
+      <c r="A141" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="24" customHeight="1">
+      <c r="A142" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="24" customHeight="1">
+      <c r="A143" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="24" customHeight="1">
+      <c r="A144" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="24" customHeight="1">
+      <c r="A145" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="24" customHeight="1">
+      <c r="A146" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="24" customHeight="1">
+      <c r="A147" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="24" customHeight="1">
+      <c r="A148" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="24" customHeight="1">
+      <c r="A149" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="24" customHeight="1">
+      <c r="A150" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="24" customHeight="1">
+      <c r="A151" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="24" customHeight="1">
+      <c r="A152" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="24" customHeight="1">
+      <c r="A153" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="24" customHeight="1">
+      <c r="A154" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="24" customHeight="1">
+      <c r="A155" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="24" customHeight="1">
+      <c r="A156" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="24" customHeight="1">
+      <c r="A157" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="24" customHeight="1">
+      <c r="A158" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="24" customHeight="1">
+      <c r="A159" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="24" customHeight="1">
+      <c r="A160" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="24" customHeight="1">
+      <c r="A161" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="24" customHeight="1">
+      <c r="A162" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="24" customHeight="1">
+      <c r="A163" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="24" customHeight="1">
+      <c r="A164" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="24" customHeight="1">
+      <c r="A165" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="24" customHeight="1">
+      <c r="A166" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="24" customHeight="1">
+      <c r="A167" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="24" customHeight="1">
+      <c r="A168" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="24" customHeight="1">
+      <c r="A169" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="24" customHeight="1">
+      <c r="A170" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="24" customHeight="1">
+      <c r="A171" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="24" customHeight="1">
+      <c r="A172" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="24" customHeight="1">
+      <c r="A173" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="24" customHeight="1">
+      <c r="A174" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="24" customHeight="1">
+      <c r="A175" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="24" customHeight="1">
+      <c r="A176" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="6"/>
+      <c r="E176" s="3" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="24" customHeight="1">
+      <c r="A177" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="24" customHeight="1">
+      <c r="A178" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="24" customHeight="1">
+      <c r="A179" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D179" s="6"/>
+      <c r="E179" s="3" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="24" customHeight="1">
+      <c r="A180" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="24" customHeight="1">
+      <c r="A181" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="24" customHeight="1">
+      <c r="A182" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="24" customHeight="1">
+      <c r="A183" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="24" customHeight="1">
+      <c r="A184" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="24" customHeight="1">
+      <c r="A185" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D185" s="6"/>
+      <c r="E185" s="3" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="24" customHeight="1">
+      <c r="A186" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="24" customHeight="1">
+      <c r="A187" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="24" customHeight="1">
+      <c r="A188" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="24" customHeight="1">
+      <c r="A189" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="24" customHeight="1">
+      <c r="A190" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="24" customHeight="1">
+      <c r="A191" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D191" s="6"/>
+      <c r="E191" s="3" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="24" customHeight="1">
+      <c r="A192" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="24" customHeight="1">
+      <c r="A193" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="24" customHeight="1">
+      <c r="A194" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="24" customHeight="1">
+      <c r="A195" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="24" customHeight="1">
+      <c r="A196" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="24" customHeight="1">
+      <c r="A197" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="24" customHeight="1">
+      <c r="A198" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="24" customHeight="1">
+      <c r="A199" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="24" customHeight="1">
+      <c r="A200" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D200" s="6"/>
+      <c r="E200" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="24" customHeight="1">
+      <c r="A201" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="24" customHeight="1">
+      <c r="A202" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="24" customHeight="1">
+      <c r="A203" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="24" customHeight="1">
+      <c r="A204" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="24" customHeight="1">
+      <c r="A205" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="24" customHeight="1">
+      <c r="A206" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="24" customHeight="1">
+      <c r="A207" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>728</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E207" s="8" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="24" customHeight="1">
+      <c r="A208" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D208" s="3"/>
+      <c r="E208" s="8" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="24" customHeight="1">
+      <c r="A209" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="3"/>
+      <c r="E209" s="8" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="24" customHeight="1">
+      <c r="A210" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="24" customHeight="1">
+      <c r="A211" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D211" s="6"/>
+      <c r="E211" s="3" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="24" customHeight="1">
+      <c r="A212" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="24" customHeight="1">
+      <c r="A213" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2799A98-B016-41C8-B322-0DF504356FB9}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D199" sqref="A1:D1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -10526,7 +14100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC7DF04-A9E6-4329-9635-F6C30C15BA74}">
   <dimension ref="A1:B70"/>
   <sheetViews>
@@ -11106,7 +14680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421B4F6A-1721-4638-B7D5-71FFDB5872A4}">
   <dimension ref="A1:D59"/>
   <sheetViews>
@@ -11955,7 +15529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2FFFD8-D4A6-4C75-BC3D-E397A6FACB80}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -12328,7 +15902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D599BCA-B4F3-4C91-A858-2BCFBF3CF0F1}">
   <dimension ref="A1:B14"/>
   <sheetViews>
@@ -12454,7 +16028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE5C58B-7B2F-44FA-AF94-65EB8075C114}">
   <dimension ref="A1:C98"/>
   <sheetViews>

--- a/データ検証/EIPA/data/en/EN_16831-1.xlsx
+++ b/データ検証/EIPA/data/en/EN_16831-1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/EIPA/data/en/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/eipa/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE49378C-6AF4-EB40-86C9-94682BFDAD21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F7F50-EAE2-D245-854F-01FDE947B382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="560" windowWidth="20800" windowHeight="14800" xr2:uid="{FE4C27AB-FFF7-4BC9-B473-7EBAC36AF9AA}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <sheet name="VATCategory" sheetId="5" r:id="rId6"/>
     <sheet name="VAT" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3269" uniqueCount="1384">
   <si>
     <t>The sequential number required in Article 226(2) of the directive 2006/112/EC [2], to uniquely identify the Invoice within the business context, time-frame, operating systems and records of the Seller. It may be based on one or more series of numbers, which may include alphanumeric characters. No identification scheme is to be used.</t>
   </si>
@@ -4575,6 +4575,10 @@
   </si>
   <si>
     <t>Quantity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>UnitPriceAmount</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4761,7 +4765,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4840,11 +4844,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5283,21 +5315,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DC1FB1-BFDE-6F49-8B64-9BB79D12E729}">
   <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D171" sqref="D171"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A115" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="54.1640625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1302</v>
       </c>
@@ -5314,7 +5346,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1">
       <c r="A2" s="9" t="s">
         <v>313</v>
       </c>
@@ -5331,7 +5363,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -5348,7 +5380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1">
       <c r="A4" s="9" t="s">
         <v>314</v>
       </c>
@@ -5365,7 +5397,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>315</v>
       </c>
@@ -5382,7 +5414,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1">
       <c r="A6" s="9" t="s">
         <v>316</v>
       </c>
@@ -5399,7 +5431,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="24" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1">
       <c r="A7" s="9" t="s">
         <v>317</v>
       </c>
@@ -5416,7 +5448,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="24" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1">
       <c r="A8" s="9" t="s">
         <v>318</v>
       </c>
@@ -5433,7 +5465,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1">
       <c r="A9" s="9" t="s">
         <v>319</v>
       </c>
@@ -5450,7 +5482,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="24" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1">
       <c r="A10" s="9" t="s">
         <v>320</v>
       </c>
@@ -5467,7 +5499,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="24" customHeight="1">
+    <row r="11" spans="1:5" ht="17" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>12</v>
       </c>
@@ -5484,7 +5516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="24" customHeight="1">
+    <row r="12" spans="1:5" ht="17" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>321</v>
       </c>
@@ -5501,7 +5533,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="24" customHeight="1">
+    <row r="13" spans="1:5" ht="17" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -5518,7 +5550,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="24" customHeight="1">
+    <row r="14" spans="1:5" ht="17" customHeight="1">
       <c r="A14" s="9" t="s">
         <v>20</v>
       </c>
@@ -5535,7 +5567,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="24" customHeight="1">
+    <row r="15" spans="1:5" ht="17" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>24</v>
       </c>
@@ -5552,7 +5584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="24" customHeight="1">
+    <row r="16" spans="1:5" ht="17" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
@@ -5569,7 +5601,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="24" customHeight="1">
+    <row r="17" spans="1:5" ht="17" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>322</v>
       </c>
@@ -5586,7 +5618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="24" customHeight="1">
+    <row r="18" spans="1:5" ht="17" customHeight="1">
       <c r="A18" s="9" t="s">
         <v>323</v>
       </c>
@@ -5603,7 +5635,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="24" customHeight="1">
+    <row r="19" spans="1:5" ht="17" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>1361</v>
       </c>
@@ -5618,7 +5650,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="24" customHeight="1">
+    <row r="20" spans="1:5" ht="17" customHeight="1">
       <c r="A20" s="9" t="s">
         <v>324</v>
       </c>
@@ -5635,7 +5667,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="24" customHeight="1">
+    <row r="21" spans="1:5" ht="17" customHeight="1">
       <c r="A21" s="9" t="s">
         <v>325</v>
       </c>
@@ -5652,7 +5684,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="24" customHeight="1">
+    <row r="22" spans="1:5" ht="17" customHeight="1">
       <c r="A22" s="9" t="s">
         <v>326</v>
       </c>
@@ -5667,7 +5699,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="24" customHeight="1">
+    <row r="23" spans="1:5" ht="17" customHeight="1">
       <c r="A23" s="9" t="s">
         <v>35</v>
       </c>
@@ -5684,7 +5716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="24" customHeight="1">
+    <row r="24" spans="1:5" ht="17" customHeight="1">
       <c r="A24" s="9" t="s">
         <v>327</v>
       </c>
@@ -5701,7 +5733,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="24" customHeight="1">
+    <row r="25" spans="1:5" ht="17" customHeight="1">
       <c r="A25" s="9" t="s">
         <v>328</v>
       </c>
@@ -5716,7 +5748,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="24" customHeight="1">
+    <row r="26" spans="1:5" ht="17" customHeight="1">
       <c r="A26" s="9" t="s">
         <v>329</v>
       </c>
@@ -5733,7 +5765,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="24" customHeight="1">
+    <row r="27" spans="1:5" ht="17" customHeight="1">
       <c r="A27" s="9" t="s">
         <v>330</v>
       </c>
@@ -5750,7 +5782,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="24" customHeight="1">
+    <row r="28" spans="1:5" ht="17" customHeight="1">
       <c r="A28" s="9" t="s">
         <v>331</v>
       </c>
@@ -5765,7 +5797,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="24" customHeight="1">
+    <row r="29" spans="1:5" ht="17" customHeight="1">
       <c r="A29" s="9" t="s">
         <v>47</v>
       </c>
@@ -5782,7 +5814,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="24" customHeight="1">
+    <row r="30" spans="1:5" ht="17" customHeight="1">
       <c r="A30" s="9" t="s">
         <v>332</v>
       </c>
@@ -5799,7 +5831,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="24" customHeight="1">
+    <row r="31" spans="1:5" ht="17" customHeight="1">
       <c r="A31" s="9" t="s">
         <v>51</v>
       </c>
@@ -5814,7 +5846,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="24" customHeight="1">
+    <row r="32" spans="1:5" ht="17" customHeight="1">
       <c r="A32" s="9" t="s">
         <v>333</v>
       </c>
@@ -5831,7 +5863,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="24" customHeight="1">
+    <row r="33" spans="1:5" ht="17" customHeight="1">
       <c r="A33" s="9" t="s">
         <v>334</v>
       </c>
@@ -5848,7 +5880,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="24" customHeight="1">
+    <row r="34" spans="1:5" ht="17" customHeight="1">
       <c r="A34" s="9" t="s">
         <v>335</v>
       </c>
@@ -5865,7 +5897,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="24" customHeight="1">
+    <row r="35" spans="1:5" ht="17" customHeight="1">
       <c r="A35" s="9" t="s">
         <v>1362</v>
       </c>
@@ -5880,7 +5912,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="24" customHeight="1">
+    <row r="36" spans="1:5" ht="17" customHeight="1">
       <c r="A36" s="9" t="s">
         <v>336</v>
       </c>
@@ -5897,7 +5929,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="24" customHeight="1">
+    <row r="37" spans="1:5" ht="17" customHeight="1">
       <c r="A37" s="9" t="s">
         <v>1363</v>
       </c>
@@ -5912,7 +5944,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="24" customHeight="1">
+    <row r="38" spans="1:5" ht="17" customHeight="1">
       <c r="A38" s="9" t="s">
         <v>337</v>
       </c>
@@ -5929,7 +5961,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="24" customHeight="1">
+    <row r="39" spans="1:5" ht="17" customHeight="1">
       <c r="A39" s="9" t="s">
         <v>338</v>
       </c>
@@ -5946,7 +5978,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="24" customHeight="1">
+    <row r="40" spans="1:5" ht="17" customHeight="1">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
@@ -5963,7 +5995,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="24" customHeight="1">
+    <row r="41" spans="1:5" ht="17" customHeight="1">
       <c r="A41" s="9" t="s">
         <v>339</v>
       </c>
@@ -5980,7 +6012,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="24" customHeight="1">
+    <row r="42" spans="1:5" ht="17" customHeight="1">
       <c r="A42" s="9" t="s">
         <v>1364</v>
       </c>
@@ -5995,7 +6027,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="24" customHeight="1">
+    <row r="43" spans="1:5" ht="17" customHeight="1">
       <c r="A43" s="9" t="s">
         <v>340</v>
       </c>
@@ -6010,7 +6042,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="24" customHeight="1">
+    <row r="44" spans="1:5" ht="17" customHeight="1">
       <c r="A44" s="9" t="s">
         <v>65</v>
       </c>
@@ -6027,7 +6059,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="24" customHeight="1">
+    <row r="45" spans="1:5" ht="17" customHeight="1">
       <c r="A45" s="9" t="s">
         <v>341</v>
       </c>
@@ -6044,7 +6076,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="24" customHeight="1">
+    <row r="46" spans="1:5" ht="17" customHeight="1">
       <c r="A46" s="9" t="s">
         <v>342</v>
       </c>
@@ -6061,7 +6093,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="24" customHeight="1">
+    <row r="47" spans="1:5" ht="17" customHeight="1">
       <c r="A47" s="9" t="s">
         <v>343</v>
       </c>
@@ -6078,7 +6110,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="24" customHeight="1">
+    <row r="48" spans="1:5" ht="17" customHeight="1">
       <c r="A48" s="9" t="s">
         <v>344</v>
       </c>
@@ -6095,7 +6127,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="24" customHeight="1">
+    <row r="49" spans="1:5" ht="17" customHeight="1">
       <c r="A49" s="9" t="s">
         <v>73</v>
       </c>
@@ -6112,7 +6144,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="24" customHeight="1">
+    <row r="50" spans="1:5" ht="17" customHeight="1">
       <c r="A50" s="9" t="s">
         <v>345</v>
       </c>
@@ -6129,7 +6161,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="24" customHeight="1">
+    <row r="51" spans="1:5" ht="17" customHeight="1">
       <c r="A51" s="9" t="s">
         <v>76</v>
       </c>
@@ -6144,7 +6176,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="24" customHeight="1">
+    <row r="52" spans="1:5" ht="17" customHeight="1">
       <c r="A52" s="9" t="s">
         <v>80</v>
       </c>
@@ -6161,7 +6193,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="24" customHeight="1">
+    <row r="53" spans="1:5" ht="17" customHeight="1">
       <c r="A53" s="9" t="s">
         <v>84</v>
       </c>
@@ -6178,7 +6210,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="24" customHeight="1">
+    <row r="54" spans="1:5" ht="17" customHeight="1">
       <c r="A54" s="9" t="s">
         <v>87</v>
       </c>
@@ -6195,7 +6227,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="24" customHeight="1">
+    <row r="55" spans="1:5" ht="17" customHeight="1">
       <c r="A55" s="9" t="s">
         <v>90</v>
       </c>
@@ -6210,7 +6242,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="24" customHeight="1">
+    <row r="56" spans="1:5" ht="17" customHeight="1">
       <c r="A56" s="9" t="s">
         <v>93</v>
       </c>
@@ -6227,7 +6259,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="24" customHeight="1">
+    <row r="57" spans="1:5" ht="17" customHeight="1">
       <c r="A57" s="9" t="s">
         <v>346</v>
       </c>
@@ -6244,7 +6276,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="24" customHeight="1">
+    <row r="58" spans="1:5" ht="17" customHeight="1">
       <c r="A58" s="9" t="s">
         <v>347</v>
       </c>
@@ -6261,7 +6293,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="24" customHeight="1">
+    <row r="59" spans="1:5" ht="17" customHeight="1">
       <c r="A59" s="9" t="s">
         <v>1365</v>
       </c>
@@ -6276,7 +6308,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="24" customHeight="1">
+    <row r="60" spans="1:5" ht="17" customHeight="1">
       <c r="A60" s="9" t="s">
         <v>348</v>
       </c>
@@ -6293,7 +6325,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="24" customHeight="1">
+    <row r="61" spans="1:5" ht="17" customHeight="1">
       <c r="A61" s="25" t="s">
         <v>1366</v>
       </c>
@@ -6308,7 +6340,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="24" customHeight="1">
+    <row r="62" spans="1:5" ht="17" customHeight="1">
       <c r="A62" s="9" t="s">
         <v>349</v>
       </c>
@@ -6325,7 +6357,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="24" customHeight="1">
+    <row r="63" spans="1:5" ht="17" customHeight="1">
       <c r="A63" s="9" t="s">
         <v>350</v>
       </c>
@@ -6342,7 +6374,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="24" customHeight="1">
+    <row r="64" spans="1:5" ht="17" customHeight="1">
       <c r="A64" s="9" t="s">
         <v>1367</v>
       </c>
@@ -6357,7 +6389,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="24" customHeight="1">
+    <row r="65" spans="1:5" ht="17" customHeight="1">
       <c r="A65" s="9" t="s">
         <v>351</v>
       </c>
@@ -6372,7 +6404,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="24" customHeight="1">
+    <row r="66" spans="1:5" ht="17" customHeight="1">
       <c r="A66" s="9" t="s">
         <v>98</v>
       </c>
@@ -6389,7 +6421,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="24" customHeight="1">
+    <row r="67" spans="1:5" ht="17" customHeight="1">
       <c r="A67" s="9" t="s">
         <v>352</v>
       </c>
@@ -6406,7 +6438,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="24" customHeight="1">
+    <row r="68" spans="1:5" ht="17" customHeight="1">
       <c r="A68" s="9" t="s">
         <v>353</v>
       </c>
@@ -6423,7 +6455,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="24" customHeight="1">
+    <row r="69" spans="1:5" ht="17" customHeight="1">
       <c r="A69" s="9" t="s">
         <v>354</v>
       </c>
@@ -6440,7 +6472,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="24" customHeight="1">
+    <row r="70" spans="1:5" ht="17" customHeight="1">
       <c r="A70" s="9" t="s">
         <v>355</v>
       </c>
@@ -6457,7 +6489,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="24" customHeight="1">
+    <row r="71" spans="1:5" ht="17" customHeight="1">
       <c r="A71" s="9" t="s">
         <v>101</v>
       </c>
@@ -6474,7 +6506,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="24" customHeight="1">
+    <row r="72" spans="1:5" ht="17" customHeight="1">
       <c r="A72" s="9" t="s">
         <v>356</v>
       </c>
@@ -6491,7 +6523,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="24" customHeight="1">
+    <row r="73" spans="1:5" ht="17" customHeight="1">
       <c r="A73" s="9" t="s">
         <v>357</v>
       </c>
@@ -6506,7 +6538,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="24" customHeight="1">
+    <row r="74" spans="1:5" ht="17" customHeight="1">
       <c r="A74" s="9" t="s">
         <v>104</v>
       </c>
@@ -6523,7 +6555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="24" customHeight="1">
+    <row r="75" spans="1:5" ht="17" customHeight="1">
       <c r="A75" s="9" t="s">
         <v>106</v>
       </c>
@@ -6540,7 +6572,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="24" customHeight="1">
+    <row r="76" spans="1:5" ht="17" customHeight="1">
       <c r="A76" s="9" t="s">
         <v>108</v>
       </c>
@@ -6557,7 +6589,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="24" customHeight="1">
+    <row r="77" spans="1:5" ht="17" customHeight="1">
       <c r="A77" s="9" t="s">
         <v>358</v>
       </c>
@@ -6572,7 +6604,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="24" customHeight="1">
+    <row r="78" spans="1:5" ht="17" customHeight="1">
       <c r="A78" s="9" t="s">
         <v>359</v>
       </c>
@@ -6589,7 +6621,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="24" customHeight="1">
+    <row r="79" spans="1:5" ht="17" customHeight="1">
       <c r="A79" s="9" t="s">
         <v>360</v>
       </c>
@@ -6606,7 +6638,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="24" customHeight="1">
+    <row r="80" spans="1:5" ht="17" customHeight="1">
       <c r="A80" s="9" t="s">
         <v>1368</v>
       </c>
@@ -6621,7 +6653,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="24" customHeight="1">
+    <row r="81" spans="1:5" ht="17" customHeight="1">
       <c r="A81" s="9" t="s">
         <v>361</v>
       </c>
@@ -6638,7 +6670,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="24" customHeight="1">
+    <row r="82" spans="1:5" ht="17" customHeight="1">
       <c r="A82" s="9" t="s">
         <v>1369</v>
       </c>
@@ -6653,7 +6685,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="24" customHeight="1">
+    <row r="83" spans="1:5" ht="17" customHeight="1">
       <c r="A83" s="9" t="s">
         <v>362</v>
       </c>
@@ -6668,7 +6700,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="24" customHeight="1">
+    <row r="84" spans="1:5" ht="17" customHeight="1">
       <c r="A84" s="9" t="s">
         <v>363</v>
       </c>
@@ -6685,7 +6717,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="24" customHeight="1">
+    <row r="85" spans="1:5" ht="17" customHeight="1">
       <c r="A85" s="9" t="s">
         <v>364</v>
       </c>
@@ -6702,7 +6734,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="24" customHeight="1">
+    <row r="86" spans="1:5" ht="17" customHeight="1">
       <c r="A86" s="9" t="s">
         <v>365</v>
       </c>
@@ -6717,7 +6749,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="24" customHeight="1">
+    <row r="87" spans="1:5" ht="17" customHeight="1">
       <c r="A87" s="9" t="s">
         <v>118</v>
       </c>
@@ -6734,7 +6766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="24" customHeight="1">
+    <row r="88" spans="1:5" ht="17" customHeight="1">
       <c r="A88" s="9" t="s">
         <v>366</v>
       </c>
@@ -6751,7 +6783,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="24" customHeight="1">
+    <row r="89" spans="1:5" ht="17" customHeight="1">
       <c r="A89" s="9" t="s">
         <v>367</v>
       </c>
@@ -6768,7 +6800,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="24" customHeight="1">
+    <row r="90" spans="1:5" ht="17" customHeight="1">
       <c r="A90" s="9" t="s">
         <v>368</v>
       </c>
@@ -6785,7 +6817,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="24" customHeight="1">
+    <row r="91" spans="1:5" ht="17" customHeight="1">
       <c r="A91" s="9" t="s">
         <v>369</v>
       </c>
@@ -6802,7 +6834,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="24" customHeight="1">
+    <row r="92" spans="1:5" ht="17" customHeight="1">
       <c r="A92" s="9" t="s">
         <v>122</v>
       </c>
@@ -6819,7 +6851,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="24" customHeight="1">
+    <row r="93" spans="1:5" ht="17" customHeight="1">
       <c r="A93" s="9" t="s">
         <v>370</v>
       </c>
@@ -6836,7 +6868,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="24" customHeight="1">
+    <row r="94" spans="1:5" ht="17" customHeight="1">
       <c r="A94" s="9" t="s">
         <v>371</v>
       </c>
@@ -6851,7 +6883,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="24" customHeight="1">
+    <row r="95" spans="1:5" ht="17" customHeight="1">
       <c r="A95" s="9" t="s">
         <v>125</v>
       </c>
@@ -6868,7 +6900,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="24" customHeight="1">
+    <row r="96" spans="1:5" ht="17" customHeight="1">
       <c r="A96" s="9" t="s">
         <v>372</v>
       </c>
@@ -6885,7 +6917,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="24" customHeight="1">
+    <row r="97" spans="1:5" ht="17" customHeight="1">
       <c r="A97" s="9" t="s">
         <v>1370</v>
       </c>
@@ -6900,7 +6932,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="24" customHeight="1">
+    <row r="98" spans="1:5" ht="17" customHeight="1">
       <c r="A98" s="9" t="s">
         <v>373</v>
       </c>
@@ -6917,7 +6949,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="24" customHeight="1">
+    <row r="99" spans="1:5" ht="17" customHeight="1">
       <c r="A99" s="9" t="s">
         <v>374</v>
       </c>
@@ -6932,7 +6964,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="24" customHeight="1">
+    <row r="100" spans="1:5" ht="17" customHeight="1">
       <c r="A100" s="9" t="s">
         <v>131</v>
       </c>
@@ -6949,7 +6981,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="24" customHeight="1">
+    <row r="101" spans="1:5" ht="17" customHeight="1">
       <c r="A101" s="9" t="s">
         <v>136</v>
       </c>
@@ -6966,7 +6998,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="24" customHeight="1">
+    <row r="102" spans="1:5" ht="17" customHeight="1">
       <c r="A102" s="9" t="s">
         <v>375</v>
       </c>
@@ -6981,7 +7013,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="24" customHeight="1">
+    <row r="103" spans="1:5" ht="17" customHeight="1">
       <c r="A103" s="9" t="s">
         <v>142</v>
       </c>
@@ -6998,7 +7030,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="24" customHeight="1">
+    <row r="104" spans="1:5" ht="17" customHeight="1">
       <c r="A104" s="9" t="s">
         <v>376</v>
       </c>
@@ -7015,7 +7047,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="24" customHeight="1">
+    <row r="105" spans="1:5" ht="17" customHeight="1">
       <c r="A105" s="9" t="s">
         <v>377</v>
       </c>
@@ -7032,7 +7064,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="24" customHeight="1">
+    <row r="106" spans="1:5" ht="17" customHeight="1">
       <c r="A106" s="9" t="s">
         <v>378</v>
       </c>
@@ -7049,7 +7081,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="24" customHeight="1">
+    <row r="107" spans="1:5" ht="17" customHeight="1">
       <c r="A107" s="9" t="s">
         <v>379</v>
       </c>
@@ -7066,7 +7098,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="24" customHeight="1">
+    <row r="108" spans="1:5" ht="17" customHeight="1">
       <c r="A108" s="9" t="s">
         <v>147</v>
       </c>
@@ -7083,7 +7115,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="24" customHeight="1">
+    <row r="109" spans="1:5" ht="17" customHeight="1">
       <c r="A109" s="9" t="s">
         <v>380</v>
       </c>
@@ -7100,7 +7132,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="24" customHeight="1">
+    <row r="110" spans="1:5" ht="17" customHeight="1">
       <c r="A110" s="9" t="s">
         <v>149</v>
       </c>
@@ -7115,7 +7147,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="24" customHeight="1">
+    <row r="111" spans="1:5" ht="17" customHeight="1">
       <c r="A111" s="9" t="s">
         <v>381</v>
       </c>
@@ -7132,7 +7164,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="24" customHeight="1">
+    <row r="112" spans="1:5" ht="17" customHeight="1">
       <c r="A112" s="9" t="s">
         <v>382</v>
       </c>
@@ -7149,7 +7181,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="24" customHeight="1">
+    <row r="113" spans="1:5" ht="17" customHeight="1">
       <c r="A113" s="9" t="s">
         <v>383</v>
       </c>
@@ -7166,7 +7198,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="24" customHeight="1">
+    <row r="114" spans="1:5" ht="17" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>155</v>
       </c>
@@ -7181,7 +7213,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="24" customHeight="1">
+    <row r="115" spans="1:5" ht="17" customHeight="1">
       <c r="A115" s="9" t="s">
         <v>384</v>
       </c>
@@ -7198,7 +7230,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="24" customHeight="1">
+    <row r="116" spans="1:5" ht="17" customHeight="1">
       <c r="A116" s="9" t="s">
         <v>385</v>
       </c>
@@ -7215,7 +7247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="24" customHeight="1">
+    <row r="117" spans="1:5" ht="17" customHeight="1">
       <c r="A117" s="9" t="s">
         <v>386</v>
       </c>
@@ -7232,7 +7264,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="24" customHeight="1">
+    <row r="118" spans="1:5" ht="17" customHeight="1">
       <c r="A118" s="9" t="s">
         <v>387</v>
       </c>
@@ -7247,7 +7279,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="24" customHeight="1">
+    <row r="119" spans="1:5" ht="17" customHeight="1">
       <c r="A119" s="9" t="s">
         <v>388</v>
       </c>
@@ -7264,7 +7296,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="24" customHeight="1">
+    <row r="120" spans="1:5" ht="17" customHeight="1">
       <c r="A120" s="9" t="s">
         <v>166</v>
       </c>
@@ -7281,7 +7313,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="24" customHeight="1">
+    <row r="121" spans="1:5" ht="17" customHeight="1">
       <c r="A121" s="9" t="s">
         <v>389</v>
       </c>
@@ -7296,7 +7328,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="24" customHeight="1">
+    <row r="122" spans="1:5" ht="17" customHeight="1">
       <c r="A122" s="9" t="s">
         <v>390</v>
       </c>
@@ -7313,7 +7345,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="24" customHeight="1">
+    <row r="123" spans="1:5" ht="17" customHeight="1">
       <c r="A123" s="9" t="s">
         <v>391</v>
       </c>
@@ -7330,7 +7362,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="24" customHeight="1">
+    <row r="124" spans="1:5" ht="17" customHeight="1">
       <c r="A124" s="9" t="s">
         <v>173</v>
       </c>
@@ -7347,7 +7379,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="24" customHeight="1">
+    <row r="125" spans="1:5" ht="17" customHeight="1">
       <c r="A125" s="9" t="s">
         <v>392</v>
       </c>
@@ -7362,7 +7394,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="24" customHeight="1">
+    <row r="126" spans="1:5" ht="17" customHeight="1">
       <c r="A126" s="9" t="s">
         <v>178</v>
       </c>
@@ -7379,7 +7411,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="24" customHeight="1">
+    <row r="127" spans="1:5" ht="17" customHeight="1">
       <c r="A127" s="9" t="s">
         <v>393</v>
       </c>
@@ -7396,7 +7428,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="24" customHeight="1">
+    <row r="128" spans="1:5" ht="17" customHeight="1">
       <c r="A128" s="9" t="s">
         <v>394</v>
       </c>
@@ -7413,7 +7445,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="24" customHeight="1">
+    <row r="129" spans="1:5" ht="17" customHeight="1">
       <c r="A129" s="9" t="s">
         <v>395</v>
       </c>
@@ -7430,7 +7462,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="24" customHeight="1">
+    <row r="130" spans="1:5" ht="17" customHeight="1">
       <c r="A130" s="9" t="s">
         <v>396</v>
       </c>
@@ -7447,7 +7479,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="24" customHeight="1">
+    <row r="131" spans="1:5" ht="17" customHeight="1">
       <c r="A131" s="9" t="s">
         <v>185</v>
       </c>
@@ -7464,7 +7496,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="24" customHeight="1">
+    <row r="132" spans="1:5" ht="17" customHeight="1">
       <c r="A132" s="9" t="s">
         <v>397</v>
       </c>
@@ -7481,7 +7513,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="24" customHeight="1">
+    <row r="133" spans="1:5" ht="17" customHeight="1">
       <c r="A133" s="9" t="s">
         <v>398</v>
       </c>
@@ -7496,7 +7528,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="24" customHeight="1">
+    <row r="134" spans="1:5" ht="17" customHeight="1">
       <c r="A134" s="9" t="s">
         <v>399</v>
       </c>
@@ -7513,7 +7545,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="135" spans="1:5" ht="24" customHeight="1">
+    <row r="135" spans="1:5" ht="17" customHeight="1">
       <c r="A135" s="9" t="s">
         <v>400</v>
       </c>
@@ -7530,7 +7562,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="24" customHeight="1">
+    <row r="136" spans="1:5" ht="17" customHeight="1">
       <c r="A136" s="9" t="s">
         <v>401</v>
       </c>
@@ -7547,7 +7579,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="24" customHeight="1">
+    <row r="137" spans="1:5" ht="17" customHeight="1">
       <c r="A137" s="9" t="s">
         <v>402</v>
       </c>
@@ -7564,7 +7596,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="24" customHeight="1">
+    <row r="138" spans="1:5" ht="17" customHeight="1">
       <c r="A138" s="9" t="s">
         <v>403</v>
       </c>
@@ -7581,7 +7613,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="24" customHeight="1">
+    <row r="139" spans="1:5" ht="17" customHeight="1">
       <c r="A139" s="9" t="s">
         <v>194</v>
       </c>
@@ -7598,7 +7630,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="24" customHeight="1">
+    <row r="140" spans="1:5" ht="17" customHeight="1">
       <c r="A140" s="9" t="s">
         <v>404</v>
       </c>
@@ -7615,7 +7647,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="24" customHeight="1">
+    <row r="141" spans="1:5" ht="17" customHeight="1">
       <c r="A141" s="9" t="s">
         <v>198</v>
       </c>
@@ -7630,7 +7662,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="24" customHeight="1">
+    <row r="142" spans="1:5" ht="17" customHeight="1">
       <c r="A142" s="9" t="s">
         <v>202</v>
       </c>
@@ -7647,7 +7679,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="24" customHeight="1">
+    <row r="143" spans="1:5" ht="17" customHeight="1">
       <c r="A143" s="9" t="s">
         <v>405</v>
       </c>
@@ -7664,7 +7696,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="24" customHeight="1">
+    <row r="144" spans="1:5" ht="17" customHeight="1">
       <c r="A144" s="9" t="s">
         <v>406</v>
       </c>
@@ -7681,7 +7713,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="24" customHeight="1">
+    <row r="145" spans="1:5" ht="17" customHeight="1">
       <c r="A145" s="9" t="s">
         <v>407</v>
       </c>
@@ -7698,7 +7730,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="24" customHeight="1">
+    <row r="146" spans="1:5" ht="17" customHeight="1">
       <c r="A146" s="9" t="s">
         <v>210</v>
       </c>
@@ -7715,7 +7747,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="24" customHeight="1">
+    <row r="147" spans="1:5" ht="17" customHeight="1">
       <c r="A147" s="9" t="s">
         <v>408</v>
       </c>
@@ -7732,7 +7764,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="24" customHeight="1">
+    <row r="148" spans="1:5" ht="17" customHeight="1">
       <c r="A148" s="9" t="s">
         <v>409</v>
       </c>
@@ -7749,7 +7781,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="24" customHeight="1">
+    <row r="149" spans="1:5" ht="17" customHeight="1">
       <c r="A149" s="9" t="s">
         <v>410</v>
       </c>
@@ -7766,7 +7798,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="24" customHeight="1">
+    <row r="150" spans="1:5" ht="17" customHeight="1">
       <c r="A150" s="9" t="s">
         <v>411</v>
       </c>
@@ -7783,7 +7815,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="24" customHeight="1">
+    <row r="151" spans="1:5" ht="17" customHeight="1">
       <c r="A151" s="9" t="s">
         <v>412</v>
       </c>
@@ -7800,7 +7832,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="24" customHeight="1">
+    <row r="152" spans="1:5" ht="17" customHeight="1">
       <c r="A152" s="9" t="s">
         <v>413</v>
       </c>
@@ -7815,7 +7847,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="24" customHeight="1">
+    <row r="153" spans="1:5" ht="17" customHeight="1">
       <c r="A153" s="9" t="s">
         <v>414</v>
       </c>
@@ -7832,7 +7864,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="24" customHeight="1">
+    <row r="154" spans="1:5" ht="17" customHeight="1">
       <c r="A154" s="9" t="s">
         <v>415</v>
       </c>
@@ -7849,7 +7881,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="24" customHeight="1">
+    <row r="155" spans="1:5" ht="17" customHeight="1">
       <c r="A155" s="9" t="s">
         <v>230</v>
       </c>
@@ -7866,7 +7898,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="24" customHeight="1">
+    <row r="156" spans="1:5" ht="17" customHeight="1">
       <c r="A156" s="9" t="s">
         <v>713</v>
       </c>
@@ -7883,7 +7915,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="24" customHeight="1">
+    <row r="157" spans="1:5" ht="17" customHeight="1">
       <c r="A157" s="9" t="s">
         <v>416</v>
       </c>
@@ -7900,7 +7932,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="24" customHeight="1">
+    <row r="158" spans="1:5" ht="17" customHeight="1">
       <c r="A158" s="9" t="s">
         <v>417</v>
       </c>
@@ -7917,7 +7949,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="24" customHeight="1">
+    <row r="159" spans="1:5" ht="17" customHeight="1">
       <c r="A159" s="9" t="s">
         <v>418</v>
       </c>
@@ -7932,7 +7964,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="24" customHeight="1">
+    <row r="160" spans="1:5" ht="17" customHeight="1">
       <c r="A160" s="9" t="s">
         <v>419</v>
       </c>
@@ -7949,7 +7981,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="24" customHeight="1">
+    <row r="161" spans="1:5" ht="17" customHeight="1">
       <c r="A161" s="9" t="s">
         <v>420</v>
       </c>
@@ -7966,7 +7998,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="24" customHeight="1">
+    <row r="162" spans="1:5" ht="17" customHeight="1">
       <c r="A162" s="9" t="s">
         <v>421</v>
       </c>
@@ -7983,7 +8015,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="24" customHeight="1">
+    <row r="163" spans="1:5" ht="17" customHeight="1">
       <c r="A163" s="9" t="s">
         <v>422</v>
       </c>
@@ -8000,7 +8032,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="24" customHeight="1">
+    <row r="164" spans="1:5" ht="17" customHeight="1">
       <c r="A164" s="9" t="s">
         <v>1371</v>
       </c>
@@ -8015,7 +8047,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="24" customHeight="1">
+    <row r="165" spans="1:5" ht="17" customHeight="1">
       <c r="A165" s="9" t="s">
         <v>1372</v>
       </c>
@@ -8030,7 +8062,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="24" customHeight="1">
+    <row r="166" spans="1:5" ht="17" customHeight="1">
       <c r="A166" s="9" t="s">
         <v>423</v>
       </c>
@@ -8045,7 +8077,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="24" customHeight="1">
+    <row r="167" spans="1:5" ht="17" customHeight="1">
       <c r="A167" s="9" t="s">
         <v>231</v>
       </c>
@@ -8062,7 +8094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="24" customHeight="1">
+    <row r="168" spans="1:5" ht="17" customHeight="1">
       <c r="A168" s="9" t="s">
         <v>424</v>
       </c>
@@ -8079,7 +8111,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="24" customHeight="1">
+    <row r="169" spans="1:5" ht="17" customHeight="1">
       <c r="A169" s="9" t="s">
         <v>425</v>
       </c>
@@ -8096,7 +8128,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="24" customHeight="1">
+    <row r="170" spans="1:5" ht="17" customHeight="1">
       <c r="A170" s="9" t="s">
         <v>1373</v>
       </c>
@@ -8111,7 +8143,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="24" customHeight="1">
+    <row r="171" spans="1:5" ht="17" customHeight="1">
       <c r="A171" s="9" t="s">
         <v>426</v>
       </c>
@@ -8128,7 +8160,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="24" customHeight="1">
+    <row r="172" spans="1:5" ht="17" customHeight="1">
       <c r="A172" s="9" t="s">
         <v>427</v>
       </c>
@@ -8145,7 +8177,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="24" customHeight="1">
+    <row r="173" spans="1:5" ht="17" customHeight="1">
       <c r="A173" s="9" t="s">
         <v>428</v>
       </c>
@@ -8162,7 +8194,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="24" customHeight="1">
+    <row r="174" spans="1:5" ht="17" customHeight="1">
       <c r="A174" s="9" t="s">
         <v>429</v>
       </c>
@@ -8179,7 +8211,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="24" customHeight="1">
+    <row r="175" spans="1:5" ht="17" customHeight="1">
       <c r="A175" s="9" t="s">
         <v>430</v>
       </c>
@@ -8196,7 +8228,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="24" customHeight="1">
+    <row r="176" spans="1:5" ht="17" customHeight="1">
       <c r="A176" s="9" t="s">
         <v>431</v>
       </c>
@@ -8211,7 +8243,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="24" customHeight="1">
+    <row r="177" spans="1:5" ht="17" customHeight="1">
       <c r="A177" s="9" t="s">
         <v>248</v>
       </c>
@@ -8228,7 +8260,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="24" customHeight="1">
+    <row r="178" spans="1:5" ht="17" customHeight="1">
       <c r="A178" s="9" t="s">
         <v>253</v>
       </c>
@@ -8245,7 +8277,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="24" customHeight="1">
+    <row r="179" spans="1:5" ht="17" customHeight="1">
       <c r="A179" s="9" t="s">
         <v>432</v>
       </c>
@@ -8260,7 +8292,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="24" customHeight="1">
+    <row r="180" spans="1:5" ht="17" customHeight="1">
       <c r="A180" s="9" t="s">
         <v>258</v>
       </c>
@@ -8277,7 +8309,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="24" customHeight="1">
+    <row r="181" spans="1:5" ht="17" customHeight="1">
       <c r="A181" s="9" t="s">
         <v>433</v>
       </c>
@@ -8294,7 +8326,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="24" customHeight="1">
+    <row r="182" spans="1:5" ht="17" customHeight="1">
       <c r="A182" s="9" t="s">
         <v>434</v>
       </c>
@@ -8311,7 +8343,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="24" customHeight="1">
+    <row r="183" spans="1:5" ht="17" customHeight="1">
       <c r="A183" s="9" t="s">
         <v>262</v>
       </c>
@@ -8328,7 +8360,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="24" customHeight="1">
+    <row r="184" spans="1:5" ht="17" customHeight="1">
       <c r="A184" s="9" t="s">
         <v>435</v>
       </c>
@@ -8345,7 +8377,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="24" customHeight="1">
+    <row r="185" spans="1:5" ht="17" customHeight="1">
       <c r="A185" s="9" t="s">
         <v>436</v>
       </c>
@@ -8360,7 +8392,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="24" customHeight="1">
+    <row r="186" spans="1:5" ht="17" customHeight="1">
       <c r="A186" s="9" t="s">
         <v>267</v>
       </c>
@@ -8377,7 +8409,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="24" customHeight="1">
+    <row r="187" spans="1:5" ht="17" customHeight="1">
       <c r="A187" s="9" t="s">
         <v>437</v>
       </c>
@@ -8394,7 +8426,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="24" customHeight="1">
+    <row r="188" spans="1:5" ht="17" customHeight="1">
       <c r="A188" s="9" t="s">
         <v>438</v>
       </c>
@@ -8411,7 +8443,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="24" customHeight="1">
+    <row r="189" spans="1:5" ht="17" customHeight="1">
       <c r="A189" s="9" t="s">
         <v>273</v>
       </c>
@@ -8428,7 +8460,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="24" customHeight="1">
+    <row r="190" spans="1:5" ht="17" customHeight="1">
       <c r="A190" s="9" t="s">
         <v>439</v>
       </c>
@@ -8445,7 +8477,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="24" customHeight="1">
+    <row r="191" spans="1:5" ht="17" customHeight="1">
       <c r="A191" s="9" t="s">
         <v>440</v>
       </c>
@@ -8460,7 +8492,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="24" customHeight="1">
+    <row r="192" spans="1:5" ht="17" customHeight="1">
       <c r="A192" s="9" t="s">
         <v>441</v>
       </c>
@@ -8471,13 +8503,13 @@
         <v>2</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>281</v>
+        <v>1383</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="24" customHeight="1">
+    <row r="193" spans="1:5" ht="17" customHeight="1">
       <c r="A193" s="9" t="s">
         <v>442</v>
       </c>
@@ -8488,13 +8520,13 @@
         <v>13</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>281</v>
+        <v>1383</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="24" customHeight="1">
+    <row r="194" spans="1:5" ht="17" customHeight="1">
       <c r="A194" s="9" t="s">
         <v>443</v>
       </c>
@@ -8505,13 +8537,13 @@
         <v>13</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>281</v>
+        <v>1383</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="24" customHeight="1">
+    <row r="195" spans="1:5" ht="17" customHeight="1">
       <c r="A195" s="9" t="s">
         <v>285</v>
       </c>
@@ -8528,7 +8560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="24" customHeight="1">
+    <row r="196" spans="1:5" ht="17" customHeight="1">
       <c r="A196" s="9" t="s">
         <v>444</v>
       </c>
@@ -8545,7 +8577,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="24" customHeight="1">
+    <row r="197" spans="1:5" ht="17" customHeight="1">
       <c r="A197" s="9" t="s">
         <v>445</v>
       </c>
@@ -8560,7 +8592,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="24" customHeight="1">
+    <row r="198" spans="1:5" ht="17" customHeight="1">
       <c r="A198" s="9" t="s">
         <v>446</v>
       </c>
@@ -8577,7 +8609,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="24" customHeight="1">
+    <row r="199" spans="1:5" ht="17" customHeight="1">
       <c r="A199" s="9" t="s">
         <v>447</v>
       </c>
@@ -8594,7 +8626,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="24" customHeight="1">
+    <row r="200" spans="1:5" ht="17" customHeight="1">
       <c r="A200" s="9" t="s">
         <v>448</v>
       </c>
@@ -8609,7 +8641,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="24" customHeight="1">
+    <row r="201" spans="1:5" ht="17" customHeight="1">
       <c r="A201" s="9" t="s">
         <v>296</v>
       </c>
@@ -8626,7 +8658,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="24" customHeight="1">
+    <row r="202" spans="1:5" ht="17" customHeight="1">
       <c r="A202" s="9" t="s">
         <v>449</v>
       </c>
@@ -8643,7 +8675,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="24" customHeight="1">
+    <row r="203" spans="1:5" ht="17" customHeight="1">
       <c r="A203" s="9" t="s">
         <v>301</v>
       </c>
@@ -8660,7 +8692,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="24" customHeight="1">
+    <row r="204" spans="1:5" ht="17" customHeight="1">
       <c r="A204" s="9" t="s">
         <v>450</v>
       </c>
@@ -8677,86 +8709,86 @@
         <v>575</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="24" customHeight="1">
+    <row r="205" spans="1:5" ht="17" customHeight="1">
       <c r="A205" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C205" s="8" t="s">
+      <c r="C205" s="27" t="s">
         <v>723</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="E205" s="27" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="206" spans="1:5" ht="24" customHeight="1">
+    <row r="206" spans="1:5" ht="17" customHeight="1">
       <c r="A206" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3" t="s">
+      <c r="D206" s="27"/>
+      <c r="E206" s="27" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="24" customHeight="1">
+    <row r="207" spans="1:5" ht="17" customHeight="1">
       <c r="A207" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="B207" s="4" t="s">
+      <c r="B207" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="27" t="s">
         <v>728</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="27" t="s">
         <v>176</v>
       </c>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="27" t="s">
         <v>730</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="24" customHeight="1">
+    <row r="208" spans="1:5" ht="17" customHeight="1">
       <c r="A208" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="B208" s="4" t="s">
+      <c r="B208" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C208" s="8" t="s">
+      <c r="C208" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="8" t="s">
+      <c r="D208" s="27"/>
+      <c r="E208" s="27" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="24" customHeight="1">
+    <row r="209" spans="1:5" ht="17" customHeight="1">
       <c r="A209" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="B209" s="4" t="s">
+      <c r="B209" s="26" t="s">
         <v>580</v>
       </c>
-      <c r="C209" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="8" t="s">
+      <c r="C209" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="27"/>
+      <c r="E209" s="27" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="24" customHeight="1">
+    <row r="210" spans="1:5" ht="17" customHeight="1">
       <c r="A210" s="9" t="s">
         <v>452</v>
       </c>
@@ -8773,7 +8805,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="24" customHeight="1">
+    <row r="211" spans="1:5" ht="17" customHeight="1">
       <c r="A211" s="9" t="s">
         <v>453</v>
       </c>
@@ -8788,7 +8820,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="24" customHeight="1">
+    <row r="212" spans="1:5" ht="17" customHeight="1">
       <c r="A212" s="9" t="s">
         <v>306</v>
       </c>
@@ -8805,7 +8837,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="24" customHeight="1">
+    <row r="213" spans="1:5" ht="17" customHeight="1">
       <c r="A213" s="9" t="s">
         <v>310</v>
       </c>
@@ -8824,6 +8856,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="endsWith" dxfId="2" priority="2" operator="endsWith" text="n">
+      <formula>RIGHT(C1,LEN("n"))="n"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="BG">
+      <formula>LEFT(A1,LEN("BG"))="BG"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -8833,8 +8875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2799A98-B016-41C8-B322-0DF504356FB9}">
   <dimension ref="A1:H213"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>

--- a/データ検証/EIPA/data/en/EN_16831-1.xlsx
+++ b/データ検証/EIPA/data/en/EN_16831-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pontsoleil/Documents/GitHub/EIPA/データ検証/eipa/data/en/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC8F7F50-EAE2-D245-854F-01FDE947B382}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AC074E-7136-4B47-AB02-7F2FCD166D1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4800" yWindow="560" windowWidth="20800" windowHeight="14800" xr2:uid="{FE4C27AB-FFF7-4BC9-B473-7EBAC36AF9AA}"/>
   </bookViews>
@@ -5315,8 +5315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5DC1FB1-BFDE-6F49-8B64-9BB79D12E729}">
   <dimension ref="A1:E213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A115" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" customHeight="1"/>
